--- a/doc/项目范围说明书v0.2.xlsx
+++ b/doc/项目范围说明书v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Develop\Git\PixelCube\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Git\PixelCube\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,14 +391,6 @@
   </si>
   <si>
     <t>VisualStudio2012，Github，SQLite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余佩峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,6 +922,60 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -945,9 +991,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,15 +1003,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,51 +1039,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1065,7 +1057,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1330,7 +1322,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1344,13 +1336,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
@@ -1387,15 +1379,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="32">
-        <v>41567</v>
-      </c>
+      <c r="A4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="14"/>
       <c r="E4" s="21"/>
     </row>
@@ -1410,12 +1396,12 @@
       <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="57"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1427,79 +1413,79 @@
       <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -1508,22 +1494,22 @@
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
@@ -1550,148 +1536,148 @@
       <c r="C18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="D20" s="64" t="s">
+      <c r="B20" s="50"/>
+      <c r="D20" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="66"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="D21" s="65" t="s">
+      <c r="B21" s="35"/>
+      <c r="D21" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="67"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="D22" s="65" t="s">
+      <c r="B22" s="35"/>
+      <c r="D22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="D23" s="65" t="s">
+      <c r="B23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="67"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="67"/>
+      <c r="B25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="D27" s="68" t="s">
+      <c r="B27" s="34"/>
+      <c r="D27" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="69"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="67"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="65"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="35"/>
+      <c r="D30" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="67"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="D31" s="65" t="s">
+      <c r="B31" s="35"/>
+      <c r="D31" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="67"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -1703,143 +1689,143 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="70" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="70"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="72" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="72" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="72"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="72" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="72" t="s">
+      <c r="B39" s="35"/>
+      <c r="C39" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="72" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="72"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="72" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="35"/>
+      <c r="C42" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="72"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="72" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="72"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="72" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="72"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="72" t="s">
+      <c r="B45" s="43"/>
+      <c r="C45" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="72"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
@@ -1864,58 +1850,43 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
     </row>
     <row r="50" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="A19:E19"/>
@@ -1932,24 +1903,39 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/项目范围说明书v0.2.xlsx
+++ b/doc/项目范围说明书v0.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,18 @@
   </si>
   <si>
     <t>VisualStudio2012，Github，SQLite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余佩峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宇明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,121 +934,121 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,13 +1348,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
@@ -1379,11 +1391,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="32">
+        <v>41567</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="33">
+        <v>41567</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
@@ -1396,12 +1418,12 @@
       <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1413,79 +1435,79 @@
       <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="69" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -1494,22 +1516,22 @@
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="57"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
@@ -1536,148 +1558,148 @@
       <c r="C18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="53"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="D20" s="50" t="s">
+      <c r="B20" s="67"/>
+      <c r="D20" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="D21" s="35" t="s">
+      <c r="B21" s="39"/>
+      <c r="D21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="D22" s="35" t="s">
+      <c r="B22" s="39"/>
+      <c r="D22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="44"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="D23" s="35" t="s">
+      <c r="B23" s="39"/>
+      <c r="D23" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="44"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="D27" s="34" t="s">
+      <c r="B27" s="69"/>
+      <c r="D27" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="D30" s="35" t="s">
+      <c r="B30" s="39"/>
+      <c r="D30" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="D31" s="35" t="s">
+      <c r="B31" s="39"/>
+      <c r="D31" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -1689,143 +1711,143 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="46" t="s">
+      <c r="B35" s="69"/>
+      <c r="C35" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="46"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="39" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="39" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="39" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="39" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="39" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="39"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="39" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="39" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="39" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="39"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="39" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="39"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
@@ -1850,43 +1872,58 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
     </row>
     <row r="50" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="A19:E19"/>
@@ -1903,39 +1940,24 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/项目范围说明书v0.2.xlsx
+++ b/doc/项目范围说明书v0.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目范围说明书(初步)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品特征</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,6 +399,78 @@
   </si>
   <si>
     <t>吴宇明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宇明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目范围说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外围框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeapMotion操作封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标变换的功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编辑导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编辑导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可编辑导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目工作范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,9 +981,6 @@
     <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -934,25 +999,115 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,95 +1116,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1348,69 +1416,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>0.1</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="31">
+        <v>41566</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="32">
-        <v>41566</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>41567</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="31">
+        <v>41567</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="32">
+      <c r="E4" s="32">
         <v>41567</v>
       </c>
-      <c r="D4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="33">
-        <v>41567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="72">
+        <v>41580</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
@@ -1418,12 +1492,12 @@
       <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1435,37 +1509,37 @@
       <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
@@ -1494,20 +1568,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="56"/>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -1516,22 +1590,22 @@
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="64"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
@@ -1552,158 +1626,158 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>88</v>
+      <c r="B18" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="42"/>
+      <c r="D18" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="D20" s="67" t="s">
+      <c r="B20" s="49"/>
+      <c r="D20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="68"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="34"/>
+      <c r="D21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="34"/>
+      <c r="D22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="34"/>
+      <c r="D23" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="D27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="69" t="s">
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="43"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="D30" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="43"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="43"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="D27" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="70"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="40"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="40"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="40"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1711,150 +1785,150 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="72" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="39" t="s">
+      <c r="D38" s="38"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="72" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="39" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="72" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="39" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="72" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="39" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="38"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="72" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="39" t="s">
+      <c r="D44" s="38"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="72" t="s">
+      <c r="B45" s="42"/>
+      <c r="C45" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="72"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
+      <c r="A46" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1862,41 +1936,146 @@
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="A49" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
+      <c r="A50" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A39:B39"/>
+  <mergeCells count="68">
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
@@ -1913,51 +2092,12 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
